--- a/SeleniumHASA9/Data/testscript.xlsx
+++ b/SeleniumHASA9/Data/testscript.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="16065" windowHeight="6615" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="6615" windowWidth="16335" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateCustomer" sheetId="1" r:id="rId1"/>
-    <sheet name="LoginPage" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="CreateCustomer" r:id="rId1" sheetId="1"/>
+    <sheet name="LoginPage" r:id="rId2" sheetId="2"/>
+    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="0"/>
   <oleSize ref="A1:M20"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Testcase id</t>
   </si>
@@ -89,6 +89,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -124,25 +125,25 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -156,10 +157,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -317,7 +318,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -326,13 +327,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -342,7 +343,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -351,7 +352,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -360,7 +361,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -370,12 +371,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -406,7 +407,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -425,7 +426,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -437,8 +438,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
@@ -446,10 +447,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="34.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -495,23 +496,23 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,28 +553,28 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="3">
-        <v>0</v>
+      <c r="D3" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="C3" r:id="rId3"/>
+    <hyperlink r:id="rId1" ref="C2"/>
+    <hyperlink r:id="rId2" ref="B3"/>
+    <hyperlink r:id="rId3" ref="C3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>